--- a/HistaffWebApp/ReportTemplates/Payroll/Business/TEMP_IMPORT_SALARY.xlsx
+++ b/HistaffWebApp/ReportTemplates/Payroll/Business/TEMP_IMPORT_SALARY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TINHVAN\TVC_BASE\06.DEPLOYMENT\02.Sourcecode\01.SourceCode\HistaffWebApp\ReportTemplates\Payroll\Business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WORKING\acv_19\HistaffWebApp\ReportTemplates\Payroll\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>ORG_NAME</t>
   </si>
@@ -60,12 +60,18 @@
   </si>
   <si>
     <t>&amp;=DATA.ORG_NAME</t>
+  </si>
+  <si>
+    <t>&amp;=DATA.TITLE_NAME</t>
+  </si>
+  <si>
+    <t>Chức danh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,7 +81,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,12 +91,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,15 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
@@ -148,12 +145,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,23 +428,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.28515625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -464,56 +458,66 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HistaffWebApp/ReportTemplates/Payroll/Business/TEMP_IMPORT_SALARY.xlsx
+++ b/HistaffWebApp/ReportTemplates/Payroll/Business/TEMP_IMPORT_SALARY.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>ORG_NAME</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Chức danh</t>
+  </si>
+  <si>
+    <t>TITLE_NAME</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +486,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -493,7 +496,9 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
